--- a/صيدليات دكتور مصطفي طلعت_2026-01-04_20-34.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-04_20-34.xlsx
@@ -71,6 +71,12 @@
     <t>2:6</t>
   </si>
   <si>
+    <t>ANTINAL 220MG/5ML 60ML SUSP.</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
     <t xml:space="preserve">ANTODINE20    6 AMP</t>
   </si>
   <si>
@@ -167,9 +173,6 @@
     <t>DOLO-D PLUS ORAL SUSP. 115 ML</t>
   </si>
   <si>
-    <t>5:0</t>
-  </si>
-  <si>
     <t>DOWNOPRAZOL 20/1100MG 14 CAPSULES</t>
   </si>
   <si>
@@ -215,6 +218,9 @@
     <t>0:2</t>
   </si>
   <si>
+    <t>FLUMOX 500MG 16 CAPS</t>
+  </si>
+  <si>
     <t>FUTAPAN 40 MG VIAL I.V.</t>
   </si>
   <si>
@@ -225,6 +231,9 @@
   </si>
   <si>
     <t>GENUPHIL ORIGINAL 50 TAB</t>
+  </si>
+  <si>
+    <t>GLYCERIN SOAP</t>
   </si>
   <si>
     <t>HEPTA PANTHENOL CREAM 50 GM</t>
@@ -1260,17 +1269,17 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c t="s" r="H11" s="8">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="9">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M11" s="9"/>
       <c r="N11" s="10">
-        <v>0.17000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1278,7 +1287,7 @@
         <v>9</v>
       </c>
       <c t="s" r="B12" s="7">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -1286,17 +1295,17 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c t="s" r="H12" s="8">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="9">
-        <v>87</v>
+        <v>13</v>
       </c>
       <c r="M12" s="9"/>
       <c r="N12" s="10">
-        <v>0.33000000000000002</v>
+        <v>0.17000000000000001</v>
       </c>
     </row>
     <row r="13" ht="25.5" customHeight="1">
@@ -1304,7 +1313,7 @@
         <v>10</v>
       </c>
       <c t="s" r="B13" s="7">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -1312,17 +1321,17 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c t="s" r="H13" s="8">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="9">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="M13" s="9"/>
       <c r="N13" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="14" ht="24.75" customHeight="1">
@@ -1338,13 +1347,13 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c t="s" r="H14" s="8">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="9">
-        <v>450</v>
+        <v>78</v>
       </c>
       <c r="M14" s="9"/>
       <c r="N14" s="10">
@@ -1356,7 +1365,7 @@
         <v>12</v>
       </c>
       <c t="s" r="B15" s="7">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -1364,13 +1373,13 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c t="s" r="H15" s="8">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="9">
-        <v>40</v>
+        <v>450</v>
       </c>
       <c r="M15" s="9"/>
       <c r="N15" s="10">
@@ -1390,13 +1399,13 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c t="s" r="H16" s="8">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="9">
-        <v>86</v>
+        <v>40</v>
       </c>
       <c r="M16" s="9"/>
       <c r="N16" s="10">
@@ -1408,7 +1417,7 @@
         <v>14</v>
       </c>
       <c t="s" r="B17" s="7">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -1416,13 +1425,13 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c t="s" r="H17" s="8">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="9">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="M17" s="9"/>
       <c r="N17" s="10">
@@ -1442,13 +1451,13 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c t="s" r="H18" s="8">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="9">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M18" s="9"/>
       <c r="N18" s="10">
@@ -1460,7 +1469,7 @@
         <v>16</v>
       </c>
       <c t="s" r="B19" s="7">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -1468,17 +1477,17 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c t="s" r="H19" s="8">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="9">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="M19" s="9"/>
       <c r="N19" s="10">
-        <v>0.33000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" ht="25.5" customHeight="1">
@@ -1494,17 +1503,17 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c t="s" r="H20" s="8">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="9">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="M20" s="9"/>
       <c r="N20" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="21" ht="24.75" customHeight="1">
@@ -1512,7 +1521,7 @@
         <v>18</v>
       </c>
       <c t="s" r="B21" s="7">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -1520,17 +1529,17 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c t="s" r="H21" s="8">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="9">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="M21" s="9"/>
       <c r="N21" s="10">
-        <v>0.33000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1538,7 +1547,7 @@
         <v>19</v>
       </c>
       <c t="s" r="B22" s="7">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -1546,17 +1555,17 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c t="s" r="H22" s="8">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="9">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="M22" s="9"/>
       <c r="N22" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="23" ht="25.5" customHeight="1">
@@ -1564,7 +1573,7 @@
         <v>20</v>
       </c>
       <c t="s" r="B23" s="7">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -1572,13 +1581,13 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c t="s" r="H23" s="8">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="9">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="M23" s="9"/>
       <c r="N23" s="10">
@@ -1598,13 +1607,13 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c t="s" r="H24" s="8">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="9">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="M24" s="9"/>
       <c r="N24" s="10">
@@ -1616,7 +1625,7 @@
         <v>22</v>
       </c>
       <c t="s" r="B25" s="7">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -1630,11 +1639,11 @@
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="9">
-        <v>47.5</v>
+        <v>41</v>
       </c>
       <c r="M25" s="9"/>
       <c r="N25" s="10">
-        <v>0.33000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" ht="24.75" customHeight="1">
@@ -1642,7 +1651,7 @@
         <v>23</v>
       </c>
       <c t="s" r="B26" s="7">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -1650,17 +1659,17 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c t="s" r="H26" s="8">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9">
-        <v>24</v>
+        <v>47.5</v>
       </c>
       <c r="M26" s="9"/>
       <c r="N26" s="10">
-        <v>0.67000000000000004</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1682,11 +1691,11 @@
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="9">
-        <v>82.920000000000002</v>
+        <v>24</v>
       </c>
       <c r="M27" s="9"/>
       <c r="N27" s="10">
-        <v>2.3300000000000001</v>
+        <v>0.67000000000000004</v>
       </c>
     </row>
     <row r="28" ht="25.5" customHeight="1">
@@ -1702,17 +1711,17 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c t="s" r="H28" s="8">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9">
-        <v>17</v>
+        <v>82.920000000000002</v>
       </c>
       <c r="M28" s="9"/>
       <c r="N28" s="10">
-        <v>0.33000000000000002</v>
+        <v>2.3300000000000001</v>
       </c>
     </row>
     <row r="29" ht="24.75" customHeight="1">
@@ -1720,7 +1729,7 @@
         <v>26</v>
       </c>
       <c t="s" r="B29" s="7">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -1728,17 +1737,17 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c t="s" r="H29" s="8">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="M29" s="9"/>
       <c r="N29" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="30" ht="25.5" customHeight="1">
@@ -1746,7 +1755,7 @@
         <v>27</v>
       </c>
       <c t="s" r="B30" s="7">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -1754,17 +1763,17 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c t="s" r="H30" s="8">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="M30" s="9"/>
       <c r="N30" s="10">
-        <v>0.20000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" ht="24.75" customHeight="1">
@@ -1780,17 +1789,17 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c t="s" r="H31" s="8">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="M31" s="9"/>
       <c r="N31" s="10">
-        <v>1</v>
+        <v>0.20000000000000001</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1798,7 +1807,7 @@
         <v>29</v>
       </c>
       <c t="s" r="B32" s="7">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -1806,17 +1815,17 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c t="s" r="H32" s="8">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="M32" s="9"/>
       <c r="N32" s="10">
-        <v>0.66000000000000003</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" ht="25.5" customHeight="1">
@@ -1838,11 +1847,11 @@
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="M33" s="9"/>
       <c r="N33" s="10">
-        <v>1</v>
+        <v>0.66000000000000003</v>
       </c>
     </row>
     <row r="34" ht="24.75" customHeight="1">
@@ -1858,13 +1867,13 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="M34" s="9"/>
       <c r="N34" s="10">
@@ -1890,7 +1899,7 @@
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="M35" s="9"/>
       <c r="N35" s="10">
@@ -1916,7 +1925,7 @@
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="M36" s="9"/>
       <c r="N36" s="10">
@@ -1936,17 +1945,17 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c t="s" r="H37" s="8">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="M37" s="9"/>
       <c r="N37" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" ht="25.5" customHeight="1">
@@ -1954,7 +1963,7 @@
         <v>35</v>
       </c>
       <c t="s" r="B38" s="7">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -1962,17 +1971,17 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="M38" s="9"/>
       <c r="N38" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" ht="24.75" customHeight="1">
@@ -1988,13 +1997,13 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c t="s" r="H39" s="8">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>58</v>
+        <v>106</v>
       </c>
       <c r="M39" s="9"/>
       <c r="N39" s="10">
@@ -2014,13 +2023,13 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="M40" s="9"/>
       <c r="N40" s="10">
@@ -2040,17 +2049,17 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="M41" s="9"/>
       <c r="N41" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2066,17 +2075,17 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>169.19999999999999</v>
+        <v>80</v>
       </c>
       <c r="M42" s="9"/>
       <c r="N42" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="43" ht="25.5" customHeight="1">
@@ -2092,13 +2101,13 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>100</v>
+        <v>169.19999999999999</v>
       </c>
       <c r="M43" s="9"/>
       <c r="N43" s="10">
@@ -2118,13 +2127,13 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="M44" s="9"/>
       <c r="N44" s="10">
@@ -2144,13 +2153,13 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c t="s" r="H45" s="8">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>25.739999999999998</v>
+        <v>54</v>
       </c>
       <c r="M45" s="9"/>
       <c r="N45" s="10">
@@ -2170,17 +2179,17 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c t="s" r="H46" s="8">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>27.260000000000002</v>
+        <v>25.739999999999998</v>
       </c>
       <c r="M46" s="9"/>
       <c r="N46" s="10">
-        <v>0.33000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2188,7 +2197,7 @@
         <v>44</v>
       </c>
       <c t="s" r="B47" s="7">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -2196,17 +2205,17 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c t="s" r="H47" s="8">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>119</v>
+        <v>27.260000000000002</v>
       </c>
       <c r="M47" s="9"/>
       <c r="N47" s="10">
-        <v>2</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="48" ht="25.5" customHeight="1">
@@ -2222,17 +2231,17 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>30</v>
+        <v>35.5</v>
       </c>
       <c r="M48" s="9"/>
       <c r="N48" s="10">
-        <v>0.33000000000000002</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="49" ht="24.75" customHeight="1">
@@ -2248,17 +2257,17 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c t="s" r="H49" s="8">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>9</v>
+        <v>119</v>
       </c>
       <c r="M49" s="9"/>
       <c r="N49" s="10">
-        <v>0.33000000000000002</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" ht="25.5" customHeight="1">
@@ -2280,11 +2289,11 @@
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="9">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="M50" s="9"/>
       <c r="N50" s="10">
-        <v>0.20000000000000001</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="51" ht="24.75" customHeight="1">
@@ -2300,17 +2309,17 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c t="s" r="H51" s="8">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="9">
-        <v>69.5</v>
+        <v>9</v>
       </c>
       <c r="M51" s="9"/>
       <c r="N51" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2326,17 +2335,17 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c t="s" r="H52" s="8">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="9">
-        <v>86.5</v>
+        <v>56</v>
       </c>
       <c r="M52" s="9"/>
       <c r="N52" s="10">
-        <v>0.5</v>
+        <v>0.20000000000000001</v>
       </c>
     </row>
     <row r="53" ht="25.5" customHeight="1">
@@ -2352,13 +2361,13 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c t="s" r="H53" s="8">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="9">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="M53" s="9"/>
       <c r="N53" s="10">
@@ -2378,13 +2387,13 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c t="s" r="H54" s="8">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="9">
-        <v>38.5</v>
+        <v>69.5</v>
       </c>
       <c r="M54" s="9"/>
       <c r="N54" s="10">
@@ -2404,13 +2413,13 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c t="s" r="H55" s="8">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="9">
-        <v>19</v>
+        <v>86.5</v>
       </c>
       <c r="M55" s="9"/>
       <c r="N55" s="10">
@@ -2430,17 +2439,17 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c t="s" r="H56" s="8">
-        <v>78</v>
+        <v>8</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="9">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="M56" s="9"/>
       <c r="N56" s="10">
-        <v>0.40000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2448,7 +2457,7 @@
         <v>54</v>
       </c>
       <c t="s" r="B57" s="7">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
@@ -2456,13 +2465,13 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c t="s" r="H57" s="8">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="9">
-        <v>70</v>
+        <v>38.5</v>
       </c>
       <c r="M57" s="9"/>
       <c r="N57" s="10">
@@ -2474,7 +2483,7 @@
         <v>55</v>
       </c>
       <c t="s" r="B58" s="7">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
@@ -2482,17 +2491,17 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c t="s" r="H58" s="8">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="9">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="M58" s="9"/>
       <c r="N58" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="59" ht="24.75" customHeight="1">
@@ -2500,7 +2509,7 @@
         <v>56</v>
       </c>
       <c t="s" r="B59" s="7">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
@@ -2508,17 +2517,17 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c t="s" r="H59" s="8">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="9">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="M59" s="9"/>
       <c r="N59" s="10">
-        <v>1</v>
+        <v>0.40000000000000002</v>
       </c>
     </row>
     <row r="60" ht="25.5" customHeight="1">
@@ -2534,17 +2543,17 @@
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c t="s" r="H60" s="8">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="9">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="M60" s="9"/>
       <c r="N60" s="10">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" ht="24.75" customHeight="1">
@@ -2560,13 +2569,13 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c t="s" r="H61" s="8">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="9">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M61" s="9"/>
       <c r="N61" s="10">
@@ -2586,13 +2595,13 @@
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c t="s" r="H62" s="8">
-        <v>85</v>
+        <v>8</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="9">
-        <v>108</v>
+        <v>55</v>
       </c>
       <c r="M62" s="9"/>
       <c r="N62" s="10">
@@ -2604,7 +2613,7 @@
         <v>60</v>
       </c>
       <c t="s" r="B63" s="7">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
@@ -2612,17 +2621,17 @@
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c t="s" r="H63" s="8">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="9">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="M63" s="9"/>
       <c r="N63" s="10">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="64" ht="24.75" customHeight="1">
@@ -2630,7 +2639,7 @@
         <v>61</v>
       </c>
       <c t="s" r="B64" s="7">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
@@ -2638,17 +2647,17 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c t="s" r="H64" s="8">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="9">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="M64" s="9"/>
       <c r="N64" s="10">
-        <v>0.33000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" ht="25.5" customHeight="1">
@@ -2656,7 +2665,7 @@
         <v>62</v>
       </c>
       <c t="s" r="B65" s="7">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
@@ -2664,13 +2673,13 @@
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c t="s" r="H65" s="8">
-        <v>17</v>
+        <v>88</v>
       </c>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="9">
-        <v>24.960000000000001</v>
+        <v>108</v>
       </c>
       <c r="M65" s="9"/>
       <c r="N65" s="10">
@@ -2690,17 +2699,17 @@
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c t="s" r="H66" s="8">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="9">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="M66" s="9"/>
       <c r="N66" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -2716,13 +2725,13 @@
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c t="s" r="H67" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="9">
-        <v>33.840000000000003</v>
+        <v>46</v>
       </c>
       <c r="M67" s="9"/>
       <c r="N67" s="10">
@@ -2742,13 +2751,13 @@
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c t="s" r="H68" s="8">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
       <c r="L68" s="9">
-        <v>31</v>
+        <v>24.960000000000001</v>
       </c>
       <c r="M68" s="9"/>
       <c r="N68" s="10">
@@ -2768,17 +2777,17 @@
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c t="s" r="H69" s="8">
-        <v>93</v>
+        <v>28</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
       <c r="L69" s="9">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="M69" s="9"/>
       <c r="N69" s="10">
-        <v>0.10000000000000001</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="70" ht="25.5" customHeight="1">
@@ -2786,7 +2795,7 @@
         <v>67</v>
       </c>
       <c t="s" r="B70" s="7">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
@@ -2794,17 +2803,17 @@
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c t="s" r="H70" s="8">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
       <c r="L70" s="9">
-        <v>23</v>
+        <v>33.840000000000003</v>
       </c>
       <c r="M70" s="9"/>
       <c r="N70" s="10">
-        <v>0.25</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="71" ht="24.75" customHeight="1">
@@ -2812,7 +2821,7 @@
         <v>68</v>
       </c>
       <c t="s" r="B71" s="7">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
@@ -2820,17 +2829,17 @@
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c t="s" r="H71" s="8">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="I71" s="8"/>
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
       <c r="L71" s="9">
-        <v>87</v>
+        <v>31</v>
       </c>
       <c r="M71" s="9"/>
       <c r="N71" s="10">
-        <v>1.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -2838,7 +2847,7 @@
         <v>69</v>
       </c>
       <c t="s" r="B72" s="7">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
@@ -2846,17 +2855,17 @@
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c t="s" r="H72" s="8">
-        <v>17</v>
+        <v>96</v>
       </c>
       <c r="I72" s="8"/>
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
       <c r="L72" s="9">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="M72" s="9"/>
       <c r="N72" s="10">
-        <v>0.5</v>
+        <v>0.10000000000000001</v>
       </c>
     </row>
     <row r="73" ht="25.5" customHeight="1">
@@ -2864,7 +2873,7 @@
         <v>70</v>
       </c>
       <c t="s" r="B73" s="7">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
@@ -2872,17 +2881,17 @@
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c t="s" r="H73" s="8">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="I73" s="8"/>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
       <c r="L73" s="9">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="M73" s="9"/>
       <c r="N73" s="10">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="74" ht="24.75" customHeight="1">
@@ -2890,7 +2899,7 @@
         <v>71</v>
       </c>
       <c t="s" r="B74" s="7">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
@@ -2898,17 +2907,17 @@
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c t="s" r="H74" s="8">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="I74" s="8"/>
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
       <c r="L74" s="9">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="M74" s="9"/>
       <c r="N74" s="10">
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="75" ht="25.5" customHeight="1">
@@ -2924,17 +2933,17 @@
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c t="s" r="H75" s="8">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="I75" s="8"/>
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
       <c r="L75" s="9">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="M75" s="9"/>
       <c r="N75" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="76" ht="24.75" customHeight="1">
@@ -2950,17 +2959,17 @@
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c t="s" r="H76" s="8">
-        <v>102</v>
+        <v>17</v>
       </c>
       <c r="I76" s="8"/>
       <c r="J76" s="8"/>
       <c r="K76" s="8"/>
       <c r="L76" s="9">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="M76" s="9"/>
       <c r="N76" s="10">
-        <v>0.17000000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -2968,7 +2977,7 @@
         <v>74</v>
       </c>
       <c t="s" r="B77" s="7">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
@@ -2982,7 +2991,7 @@
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
       <c r="L77" s="9">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="M77" s="9"/>
       <c r="N77" s="10">
@@ -2994,7 +3003,7 @@
         <v>75</v>
       </c>
       <c t="s" r="B78" s="7">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C78" s="7"/>
       <c r="D78" s="7"/>
@@ -3008,7 +3017,7 @@
       <c r="J78" s="8"/>
       <c r="K78" s="8"/>
       <c r="L78" s="9">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="M78" s="9"/>
       <c r="N78" s="10">
@@ -3020,7 +3029,7 @@
         <v>76</v>
       </c>
       <c t="s" r="B79" s="7">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
@@ -3028,17 +3037,17 @@
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c t="s" r="H79" s="8">
-        <v>8</v>
+        <v>105</v>
       </c>
       <c r="I79" s="8"/>
       <c r="J79" s="8"/>
       <c r="K79" s="8"/>
       <c r="L79" s="9">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="M79" s="9"/>
       <c r="N79" s="10">
-        <v>1</v>
+        <v>0.17000000000000001</v>
       </c>
     </row>
     <row r="80" ht="25.5" customHeight="1">
@@ -3054,13 +3063,13 @@
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
       <c t="s" r="H80" s="8">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="I80" s="8"/>
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
       <c r="L80" s="9">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="M80" s="9"/>
       <c r="N80" s="10">
@@ -3086,7 +3095,7 @@
       <c r="J81" s="8"/>
       <c r="K81" s="8"/>
       <c r="L81" s="9">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="M81" s="9"/>
       <c r="N81" s="10">
@@ -3106,13 +3115,13 @@
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
       <c t="s" r="H82" s="8">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="I82" s="8"/>
       <c r="J82" s="8"/>
       <c r="K82" s="8"/>
       <c r="L82" s="9">
-        <v>94</v>
+        <v>25</v>
       </c>
       <c r="M82" s="9"/>
       <c r="N82" s="10">
@@ -3132,13 +3141,13 @@
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
       <c t="s" r="H83" s="8">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="I83" s="8"/>
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
       <c r="L83" s="9">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="M83" s="9"/>
       <c r="N83" s="10">
@@ -3158,13 +3167,13 @@
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c t="s" r="H84" s="8">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="I84" s="8"/>
       <c r="J84" s="8"/>
       <c r="K84" s="8"/>
       <c r="L84" s="9">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="M84" s="9"/>
       <c r="N84" s="10">
@@ -3184,17 +3193,17 @@
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
       <c t="s" r="H85" s="8">
-        <v>112</v>
+        <v>17</v>
       </c>
       <c r="I85" s="8"/>
       <c r="J85" s="8"/>
       <c r="K85" s="8"/>
       <c r="L85" s="9">
-        <v>26</v>
+        <v>94</v>
       </c>
       <c r="M85" s="9"/>
       <c r="N85" s="10">
-        <v>0.33000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" ht="24.75" customHeight="1">
@@ -3202,7 +3211,7 @@
         <v>83</v>
       </c>
       <c t="s" r="B86" s="7">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C86" s="7"/>
       <c r="D86" s="7"/>
@@ -3210,17 +3219,17 @@
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
       <c t="s" r="H86" s="8">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="I86" s="8"/>
       <c r="J86" s="8"/>
       <c r="K86" s="8"/>
       <c r="L86" s="9">
-        <v>134.40000000000001</v>
+        <v>90</v>
       </c>
       <c r="M86" s="9"/>
       <c r="N86" s="10">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -3228,7 +3237,7 @@
         <v>84</v>
       </c>
       <c t="s" r="B87" s="7">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C87" s="7"/>
       <c r="D87" s="7"/>
@@ -3236,13 +3245,13 @@
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
       <c t="s" r="H87" s="8">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="I87" s="8"/>
       <c r="J87" s="8"/>
       <c r="K87" s="8"/>
       <c r="L87" s="9">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="M87" s="9"/>
       <c r="N87" s="10">
@@ -3254,7 +3263,7 @@
         <v>85</v>
       </c>
       <c t="s" r="B88" s="7">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C88" s="7"/>
       <c r="D88" s="7"/>
@@ -3262,17 +3271,17 @@
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
       <c t="s" r="H88" s="8">
-        <v>10</v>
+        <v>115</v>
       </c>
       <c r="I88" s="8"/>
       <c r="J88" s="8"/>
       <c r="K88" s="8"/>
       <c r="L88" s="9">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="M88" s="9"/>
       <c r="N88" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="89" ht="24.75" customHeight="1">
@@ -3288,17 +3297,17 @@
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
       <c t="s" r="H89" s="8">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="I89" s="8"/>
       <c r="J89" s="8"/>
       <c r="K89" s="8"/>
       <c r="L89" s="9">
-        <v>83</v>
+        <v>134.40000000000001</v>
       </c>
       <c r="M89" s="9"/>
       <c r="N89" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="90" ht="25.5" customHeight="1">
@@ -3314,13 +3323,13 @@
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
       <c t="s" r="H90" s="8">
-        <v>118</v>
+        <v>8</v>
       </c>
       <c r="I90" s="8"/>
       <c r="J90" s="8"/>
       <c r="K90" s="8"/>
       <c r="L90" s="9">
-        <v>245</v>
+        <v>60</v>
       </c>
       <c r="M90" s="9"/>
       <c r="N90" s="10">
@@ -3332,7 +3341,7 @@
         <v>88</v>
       </c>
       <c t="s" r="B91" s="7">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C91" s="7"/>
       <c r="D91" s="7"/>
@@ -3340,13 +3349,13 @@
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
       <c t="s" r="H91" s="8">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="I91" s="8"/>
       <c r="J91" s="8"/>
       <c r="K91" s="8"/>
       <c r="L91" s="9">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M91" s="9"/>
       <c r="N91" s="10">
@@ -3358,7 +3367,7 @@
         <v>89</v>
       </c>
       <c t="s" r="B92" s="7">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C92" s="7"/>
       <c r="D92" s="7"/>
@@ -3366,17 +3375,17 @@
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
       <c t="s" r="H92" s="8">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="I92" s="8"/>
       <c r="J92" s="8"/>
       <c r="K92" s="8"/>
       <c r="L92" s="9">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="M92" s="9"/>
       <c r="N92" s="10">
-        <v>1.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" ht="25.5" customHeight="1">
@@ -3384,7 +3393,7 @@
         <v>90</v>
       </c>
       <c t="s" r="B93" s="7">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C93" s="7"/>
       <c r="D93" s="7"/>
@@ -3392,17 +3401,17 @@
       <c r="F93" s="7"/>
       <c r="G93" s="7"/>
       <c t="s" r="H93" s="8">
-        <v>41</v>
+        <v>121</v>
       </c>
       <c r="I93" s="8"/>
       <c r="J93" s="8"/>
       <c r="K93" s="8"/>
       <c r="L93" s="9">
-        <v>168</v>
+        <v>245</v>
       </c>
       <c r="M93" s="9"/>
       <c r="N93" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" ht="24.75" customHeight="1">
@@ -3418,17 +3427,17 @@
       <c r="F94" s="7"/>
       <c r="G94" s="7"/>
       <c t="s" r="H94" s="8">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="I94" s="8"/>
       <c r="J94" s="8"/>
       <c r="K94" s="8"/>
       <c r="L94" s="9">
-        <v>74.689999999999998</v>
+        <v>23</v>
       </c>
       <c r="M94" s="9"/>
       <c r="N94" s="10">
-        <v>0.20000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" ht="25.5" customHeight="1">
@@ -3444,17 +3453,17 @@
       <c r="F95" s="7"/>
       <c r="G95" s="7"/>
       <c t="s" r="H95" s="8">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I95" s="8"/>
       <c r="J95" s="8"/>
       <c r="K95" s="8"/>
       <c r="L95" s="9">
-        <v>128</v>
+        <v>69</v>
       </c>
       <c r="M95" s="9"/>
       <c r="N95" s="10">
-        <v>0.33000000000000002</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="96" ht="24.75" customHeight="1">
@@ -3470,17 +3479,17 @@
       <c r="F96" s="7"/>
       <c r="G96" s="7"/>
       <c t="s" r="H96" s="8">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I96" s="8"/>
       <c r="J96" s="8"/>
       <c r="K96" s="8"/>
       <c r="L96" s="9">
-        <v>31</v>
+        <v>168</v>
       </c>
       <c r="M96" s="9"/>
       <c r="N96" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -3496,17 +3505,17 @@
       <c r="F97" s="7"/>
       <c r="G97" s="7"/>
       <c t="s" r="H97" s="8">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="I97" s="8"/>
       <c r="J97" s="8"/>
       <c r="K97" s="8"/>
       <c r="L97" s="9">
-        <v>18</v>
+        <v>74.689999999999998</v>
       </c>
       <c r="M97" s="9"/>
       <c r="N97" s="10">
-        <v>0.5</v>
+        <v>0.20000000000000001</v>
       </c>
     </row>
     <row r="98" ht="25.5" customHeight="1">
@@ -3522,17 +3531,17 @@
       <c r="F98" s="7"/>
       <c r="G98" s="7"/>
       <c t="s" r="H98" s="8">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I98" s="8"/>
       <c r="J98" s="8"/>
       <c r="K98" s="8"/>
       <c r="L98" s="9">
-        <v>24.960000000000001</v>
+        <v>128</v>
       </c>
       <c r="M98" s="9"/>
       <c r="N98" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="99" ht="24.75" customHeight="1">
@@ -3548,17 +3557,17 @@
       <c r="F99" s="7"/>
       <c r="G99" s="7"/>
       <c t="s" r="H99" s="8">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="I99" s="8"/>
       <c r="J99" s="8"/>
       <c r="K99" s="8"/>
       <c r="L99" s="9">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="M99" s="9"/>
       <c r="N99" s="10">
-        <v>0.33000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" ht="25.5" customHeight="1">
@@ -3574,17 +3583,17 @@
       <c r="F100" s="7"/>
       <c r="G100" s="7"/>
       <c t="s" r="H100" s="8">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="I100" s="8"/>
       <c r="J100" s="8"/>
       <c r="K100" s="8"/>
       <c r="L100" s="9">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="M100" s="9"/>
       <c r="N100" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="101" ht="24.75" customHeight="1">
@@ -3600,13 +3609,13 @@
       <c r="F101" s="7"/>
       <c r="G101" s="7"/>
       <c t="s" r="H101" s="8">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="I101" s="8"/>
       <c r="J101" s="8"/>
       <c r="K101" s="8"/>
       <c r="L101" s="9">
-        <v>102.59999999999999</v>
+        <v>24.960000000000001</v>
       </c>
       <c r="M101" s="9"/>
       <c r="N101" s="10">
@@ -3626,17 +3635,17 @@
       <c r="F102" s="7"/>
       <c r="G102" s="7"/>
       <c t="s" r="H102" s="8">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="I102" s="8"/>
       <c r="J102" s="8"/>
       <c r="K102" s="8"/>
       <c r="L102" s="9">
-        <v>168</v>
+        <v>17</v>
       </c>
       <c r="M102" s="9"/>
       <c r="N102" s="10">
-        <v>2</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="103" ht="25.5" customHeight="1">
@@ -3652,13 +3661,13 @@
       <c r="F103" s="7"/>
       <c r="G103" s="7"/>
       <c t="s" r="H103" s="8">
-        <v>132</v>
+        <v>28</v>
       </c>
       <c r="I103" s="8"/>
       <c r="J103" s="8"/>
       <c r="K103" s="8"/>
       <c r="L103" s="9">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="M103" s="9"/>
       <c r="N103" s="10">
@@ -3670,7 +3679,7 @@
         <v>101</v>
       </c>
       <c t="s" r="B104" s="7">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C104" s="7"/>
       <c r="D104" s="7"/>
@@ -3678,13 +3687,13 @@
       <c r="F104" s="7"/>
       <c r="G104" s="7"/>
       <c t="s" r="H104" s="8">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="I104" s="8"/>
       <c r="J104" s="8"/>
       <c r="K104" s="8"/>
       <c r="L104" s="9">
-        <v>40</v>
+        <v>102.59999999999999</v>
       </c>
       <c r="M104" s="9"/>
       <c r="N104" s="10">
@@ -3696,7 +3705,7 @@
         <v>102</v>
       </c>
       <c t="s" r="B105" s="7">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C105" s="7"/>
       <c r="D105" s="7"/>
@@ -3704,17 +3713,17 @@
       <c r="F105" s="7"/>
       <c r="G105" s="7"/>
       <c t="s" r="H105" s="8">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="I105" s="8"/>
       <c r="J105" s="8"/>
       <c r="K105" s="8"/>
       <c r="L105" s="9">
-        <v>30</v>
+        <v>168</v>
       </c>
       <c r="M105" s="9"/>
       <c r="N105" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" ht="24.75" customHeight="1">
@@ -3722,7 +3731,7 @@
         <v>103</v>
       </c>
       <c t="s" r="B106" s="7">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C106" s="7"/>
       <c r="D106" s="7"/>
@@ -3730,17 +3739,17 @@
       <c r="F106" s="7"/>
       <c r="G106" s="7"/>
       <c t="s" r="H106" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I106" s="8"/>
       <c r="J106" s="8"/>
       <c r="K106" s="8"/>
       <c r="L106" s="9">
-        <v>98.400000000000006</v>
+        <v>25</v>
       </c>
       <c r="M106" s="9"/>
       <c r="N106" s="10">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -3748,7 +3757,7 @@
         <v>104</v>
       </c>
       <c t="s" r="B107" s="7">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C107" s="7"/>
       <c r="D107" s="7"/>
@@ -3756,13 +3765,13 @@
       <c r="F107" s="7"/>
       <c r="G107" s="7"/>
       <c t="s" r="H107" s="8">
-        <v>138</v>
+        <v>28</v>
       </c>
       <c r="I107" s="8"/>
       <c r="J107" s="8"/>
       <c r="K107" s="8"/>
       <c r="L107" s="9">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="M107" s="9"/>
       <c r="N107" s="10">
@@ -3774,7 +3783,7 @@
         <v>105</v>
       </c>
       <c t="s" r="B108" s="7">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C108" s="7"/>
       <c r="D108" s="7"/>
@@ -3782,13 +3791,13 @@
       <c r="F108" s="7"/>
       <c r="G108" s="7"/>
       <c t="s" r="H108" s="8">
-        <v>138</v>
+        <v>10</v>
       </c>
       <c r="I108" s="8"/>
       <c r="J108" s="8"/>
       <c r="K108" s="8"/>
       <c r="L108" s="9">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="M108" s="9"/>
       <c r="N108" s="10">
@@ -3800,7 +3809,7 @@
         <v>106</v>
       </c>
       <c t="s" r="B109" s="7">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C109" s="7"/>
       <c r="D109" s="7"/>
@@ -3808,13 +3817,13 @@
       <c r="F109" s="7"/>
       <c r="G109" s="7"/>
       <c t="s" r="H109" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I109" s="8"/>
       <c r="J109" s="8"/>
       <c r="K109" s="8"/>
       <c r="L109" s="9">
-        <v>16</v>
+        <v>98.400000000000006</v>
       </c>
       <c r="M109" s="9"/>
       <c r="N109" s="10">
@@ -3826,7 +3835,7 @@
         <v>107</v>
       </c>
       <c t="s" r="B110" s="7">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C110" s="7"/>
       <c r="D110" s="7"/>
@@ -3840,11 +3849,11 @@
       <c r="J110" s="8"/>
       <c r="K110" s="8"/>
       <c r="L110" s="9">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="M110" s="9"/>
       <c r="N110" s="10">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" ht="24.75" customHeight="1">
@@ -3852,7 +3861,7 @@
         <v>108</v>
       </c>
       <c t="s" r="B111" s="7">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C111" s="7"/>
       <c r="D111" s="7"/>
@@ -3860,17 +3869,17 @@
       <c r="F111" s="7"/>
       <c r="G111" s="7"/>
       <c t="s" r="H111" s="8">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="I111" s="8"/>
       <c r="J111" s="8"/>
       <c r="K111" s="8"/>
       <c r="L111" s="9">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="M111" s="9"/>
       <c r="N111" s="10">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -3878,7 +3887,7 @@
         <v>109</v>
       </c>
       <c t="s" r="B112" s="7">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C112" s="7"/>
       <c r="D112" s="7"/>
@@ -3892,11 +3901,11 @@
       <c r="J112" s="8"/>
       <c r="K112" s="8"/>
       <c r="L112" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="M112" s="9"/>
       <c r="N112" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="113" ht="25.5" customHeight="1">
@@ -3904,7 +3913,7 @@
         <v>110</v>
       </c>
       <c t="s" r="B113" s="7">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C113" s="7"/>
       <c r="D113" s="7"/>
@@ -3918,11 +3927,11 @@
       <c r="J113" s="8"/>
       <c r="K113" s="8"/>
       <c r="L113" s="9">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="M113" s="9"/>
       <c r="N113" s="10">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="114" ht="24.75" customHeight="1">
@@ -3930,7 +3939,7 @@
         <v>111</v>
       </c>
       <c t="s" r="B114" s="7">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C114" s="7"/>
       <c r="D114" s="7"/>
@@ -3938,17 +3947,17 @@
       <c r="F114" s="7"/>
       <c r="G114" s="7"/>
       <c t="s" r="H114" s="8">
-        <v>8</v>
+        <v>147</v>
       </c>
       <c r="I114" s="8"/>
       <c r="J114" s="8"/>
       <c r="K114" s="8"/>
       <c r="L114" s="9">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="M114" s="9"/>
       <c r="N114" s="10">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="115" ht="25.5" customHeight="1">
@@ -3964,13 +3973,13 @@
       <c r="F115" s="7"/>
       <c r="G115" s="7"/>
       <c t="s" r="H115" s="8">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="I115" s="8"/>
       <c r="J115" s="8"/>
       <c r="K115" s="8"/>
       <c r="L115" s="9">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="M115" s="9"/>
       <c r="N115" s="10">
@@ -3990,17 +3999,17 @@
       <c r="F116" s="7"/>
       <c r="G116" s="7"/>
       <c t="s" r="H116" s="8">
-        <v>8</v>
+        <v>147</v>
       </c>
       <c r="I116" s="8"/>
       <c r="J116" s="8"/>
       <c r="K116" s="8"/>
       <c r="L116" s="9">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="M116" s="9"/>
       <c r="N116" s="10">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -4016,17 +4025,17 @@
       <c r="F117" s="7"/>
       <c r="G117" s="7"/>
       <c t="s" r="H117" s="8">
-        <v>151</v>
+        <v>8</v>
       </c>
       <c r="I117" s="8"/>
       <c r="J117" s="8"/>
       <c r="K117" s="8"/>
       <c r="L117" s="9">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="M117" s="9"/>
       <c r="N117" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" ht="25.5" customHeight="1">
@@ -4034,7 +4043,7 @@
         <v>115</v>
       </c>
       <c t="s" r="B118" s="7">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C118" s="7"/>
       <c r="D118" s="7"/>
@@ -4042,17 +4051,17 @@
       <c r="F118" s="7"/>
       <c r="G118" s="7"/>
       <c t="s" r="H118" s="8">
-        <v>57</v>
+        <v>147</v>
       </c>
       <c r="I118" s="8"/>
       <c r="J118" s="8"/>
       <c r="K118" s="8"/>
       <c r="L118" s="9">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="M118" s="9"/>
       <c r="N118" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" ht="24.75" customHeight="1">
@@ -4060,7 +4069,7 @@
         <v>116</v>
       </c>
       <c t="s" r="B119" s="7">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C119" s="7"/>
       <c r="D119" s="7"/>
@@ -4068,17 +4077,17 @@
       <c r="F119" s="7"/>
       <c r="G119" s="7"/>
       <c t="s" r="H119" s="8">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="I119" s="8"/>
       <c r="J119" s="8"/>
       <c r="K119" s="8"/>
       <c r="L119" s="9">
-        <v>17</v>
+        <v>108</v>
       </c>
       <c r="M119" s="9"/>
       <c r="N119" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="120" ht="25.5" customHeight="1">
@@ -4086,7 +4095,7 @@
         <v>117</v>
       </c>
       <c t="s" r="B120" s="7">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C120" s="7"/>
       <c r="D120" s="7"/>
@@ -4094,17 +4103,17 @@
       <c r="F120" s="7"/>
       <c r="G120" s="7"/>
       <c t="s" r="H120" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I120" s="8"/>
       <c r="J120" s="8"/>
       <c r="K120" s="8"/>
       <c r="L120" s="9">
-        <v>45</v>
+        <v>96</v>
       </c>
       <c r="M120" s="9"/>
       <c r="N120" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="121" ht="24.75" customHeight="1">
@@ -4112,7 +4121,7 @@
         <v>118</v>
       </c>
       <c t="s" r="B121" s="7">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C121" s="7"/>
       <c r="D121" s="7"/>
@@ -4120,17 +4129,17 @@
       <c r="F121" s="7"/>
       <c r="G121" s="7"/>
       <c t="s" r="H121" s="8">
-        <v>136</v>
+        <v>58</v>
       </c>
       <c r="I121" s="8"/>
       <c r="J121" s="8"/>
       <c r="K121" s="8"/>
       <c r="L121" s="9">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="M121" s="9"/>
       <c r="N121" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -4138,7 +4147,7 @@
         <v>119</v>
       </c>
       <c t="s" r="B122" s="7">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C122" s="7"/>
       <c r="D122" s="7"/>
@@ -4146,13 +4155,13 @@
       <c r="F122" s="7"/>
       <c r="G122" s="7"/>
       <c t="s" r="H122" s="8">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I122" s="8"/>
       <c r="J122" s="8"/>
       <c r="K122" s="8"/>
       <c r="L122" s="9">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="M122" s="9"/>
       <c r="N122" s="10">
@@ -4160,37 +4169,115 @@
       </c>
     </row>
     <row r="123" ht="25.5" customHeight="1">
-      <c r="K123" s="11">
-        <v>6906.4399999999996</v>
-      </c>
-      <c r="L123" s="11"/>
-      <c r="M123" s="11"/>
-      <c r="N123" s="11"/>
-    </row>
-    <row r="124" ht="17.25" customHeight="1">
-      <c t="s" r="A124" s="12">
+      <c r="A123" s="6">
+        <v>120</v>
+      </c>
+      <c t="s" r="B123" s="7">
+        <v>157</v>
+      </c>
+      <c r="C123" s="7"/>
+      <c r="D123" s="7"/>
+      <c r="E123" s="7"/>
+      <c r="F123" s="7"/>
+      <c r="G123" s="7"/>
+      <c t="s" r="H123" s="8">
         <v>158</v>
       </c>
-      <c r="B124" s="12"/>
-      <c r="C124" s="12"/>
-      <c r="D124" s="12"/>
-      <c r="E124" s="12"/>
-      <c t="s" r="F124" s="13">
+      <c r="I123" s="8"/>
+      <c r="J123" s="8"/>
+      <c r="K123" s="8"/>
+      <c r="L123" s="9">
+        <v>45</v>
+      </c>
+      <c r="M123" s="9"/>
+      <c r="N123" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" ht="24.75" customHeight="1">
+      <c r="A124" s="6">
+        <v>121</v>
+      </c>
+      <c t="s" r="B124" s="7">
         <v>159</v>
       </c>
-      <c r="G124" s="13"/>
-      <c r="H124" s="14"/>
-      <c t="s" r="I124" s="15">
+      <c r="C124" s="7"/>
+      <c r="D124" s="7"/>
+      <c r="E124" s="7"/>
+      <c r="F124" s="7"/>
+      <c r="G124" s="7"/>
+      <c t="s" r="H124" s="8">
+        <v>139</v>
+      </c>
+      <c r="I124" s="8"/>
+      <c r="J124" s="8"/>
+      <c r="K124" s="8"/>
+      <c r="L124" s="9">
+        <v>35</v>
+      </c>
+      <c r="M124" s="9"/>
+      <c r="N124" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" ht="25.5" customHeight="1">
+      <c r="A125" s="6">
+        <v>122</v>
+      </c>
+      <c t="s" r="B125" s="7">
         <v>160</v>
       </c>
-      <c r="J124" s="15"/>
-      <c r="K124" s="15"/>
-      <c r="L124" s="15"/>
-      <c r="M124" s="15"/>
-      <c r="N124" s="15"/>
+      <c r="C125" s="7"/>
+      <c r="D125" s="7"/>
+      <c r="E125" s="7"/>
+      <c r="F125" s="7"/>
+      <c r="G125" s="7"/>
+      <c t="s" r="H125" s="8">
+        <v>52</v>
+      </c>
+      <c r="I125" s="8"/>
+      <c r="J125" s="8"/>
+      <c r="K125" s="8"/>
+      <c r="L125" s="9">
+        <v>30</v>
+      </c>
+      <c r="M125" s="9"/>
+      <c r="N125" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" ht="25.5" customHeight="1">
+      <c r="K126" s="11">
+        <v>7008.9399999999996</v>
+      </c>
+      <c r="L126" s="11"/>
+      <c r="M126" s="11"/>
+      <c r="N126" s="11"/>
+    </row>
+    <row r="127" ht="16.5" customHeight="1">
+      <c t="s" r="A127" s="12">
+        <v>161</v>
+      </c>
+      <c r="B127" s="12"/>
+      <c r="C127" s="12"/>
+      <c r="D127" s="12"/>
+      <c r="E127" s="12"/>
+      <c t="s" r="F127" s="13">
+        <v>162</v>
+      </c>
+      <c r="G127" s="13"/>
+      <c r="H127" s="14"/>
+      <c t="s" r="I127" s="15">
+        <v>163</v>
+      </c>
+      <c r="J127" s="15"/>
+      <c r="K127" s="15"/>
+      <c r="L127" s="15"/>
+      <c r="M127" s="15"/>
+      <c r="N127" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="368">
+  <mergeCells count="377">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -4555,10 +4642,19 @@
     <mergeCell ref="B122:G122"/>
     <mergeCell ref="H122:K122"/>
     <mergeCell ref="L122:M122"/>
-    <mergeCell ref="K123:N123"/>
-    <mergeCell ref="A124:E124"/>
-    <mergeCell ref="F124:G124"/>
-    <mergeCell ref="I124:N124"/>
+    <mergeCell ref="B123:G123"/>
+    <mergeCell ref="H123:K123"/>
+    <mergeCell ref="L123:M123"/>
+    <mergeCell ref="B124:G124"/>
+    <mergeCell ref="H124:K124"/>
+    <mergeCell ref="L124:M124"/>
+    <mergeCell ref="B125:G125"/>
+    <mergeCell ref="H125:K125"/>
+    <mergeCell ref="L125:M125"/>
+    <mergeCell ref="K126:N126"/>
+    <mergeCell ref="A127:E127"/>
+    <mergeCell ref="F127:G127"/>
+    <mergeCell ref="I127:N127"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
